--- a/演草纸.xlsx
+++ b/演草纸.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26700" windowHeight="11670" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="公式" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>项目</t>
   </si>
@@ -73,6 +95,15 @@
     <t>比例</t>
   </si>
   <si>
+    <t>剩余年限</t>
+  </si>
+  <si>
+    <t>基准年限</t>
+  </si>
+  <si>
+    <t>修正系数</t>
+  </si>
+  <si>
     <t>市场参照物</t>
   </si>
   <si>
@@ -101,20 +132,96 @@
   </si>
   <si>
     <t>本化率</t>
+  </si>
+  <si>
+    <t>年度</t>
+  </si>
+  <si>
+    <t>净收益</t>
+  </si>
+  <si>
+    <t>公顷</t>
+  </si>
+  <si>
+    <r>
+      <t>竹材（株</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/公顷）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>竹笋（公斤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/公顷）</t>
+    </r>
+  </si>
+  <si>
+    <t>每年施肥</t>
+  </si>
+  <si>
+    <t>每年抚育</t>
+  </si>
+  <si>
+    <t>每年除草</t>
+  </si>
+  <si>
+    <t>每年管护</t>
+  </si>
+  <si>
+    <t>每年地租</t>
+  </si>
+  <si>
+    <t>培育总成本</t>
+  </si>
+  <si>
+    <t>每年收益</t>
+  </si>
+  <si>
+    <t>折现率</t>
+  </si>
+  <si>
+    <t>折现额</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -275,6 +382,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -619,168 +733,180 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -795,7 +921,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,134 +1235,171 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8" style="11" customWidth="1"/>
-    <col min="4" max="7" width="8.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="15" customWidth="1"/>
+    <col min="2" max="7" width="8.875" style="15" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13">
-        <v>0.2123</v>
-      </c>
-      <c r="C2" s="12">
-        <v>7</v>
-      </c>
-      <c r="D2" s="12">
-        <v>46716</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="b">
+      <c r="B2" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="16">
+        <v>8</v>
+      </c>
+      <c r="D2" s="16">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="18">
         <f>-PV(B2,C2,D2,E2,G2)+F2</f>
-        <v>162867.0019814</v>
-      </c>
-      <c r="I2" s="14">
+        <v>19389.6382782788</v>
+      </c>
+      <c r="I2" s="18">
         <f>-FV(B2,C2,D2,F2,G2)+E2</f>
-        <v>626763.703623356</v>
-      </c>
-      <c r="J2" s="14" t="b">
+        <v>28647.3266273438</v>
+      </c>
+      <c r="J2" s="18" t="b">
         <f>I2/(1+B2)^C2=H2</f>
         <v>1</v>
       </c>
     </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="16">
+        <v>8</v>
+      </c>
+      <c r="D5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="E5" s="18">
+        <f>ROUND((1-(1+B5)^(-C5))/B5*IF(D5=0,1,1+B5),6)</f>
+        <v>6.786373</v>
+      </c>
+      <c r="F5" s="18">
+        <f>((1+B5)^C5-1)/B5*IF(D5=0,1,1+B5)</f>
+        <v>10.0265643195703</v>
+      </c>
+      <c r="G5" s="18" t="b">
+        <f>ROUND(F5/(1+B5)^C5,6)=E5</f>
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="12" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <f>ROUND((1-(1+B6)^(-C6))/B6*IF(D6=0,1,1+B6),6)</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="14">
-        <f>((1+B6)^C6-1)/B6*IF(D6=0,1,1+B6)</f>
-        <v>1.05</v>
-      </c>
-      <c r="G6" s="14" t="b">
-        <f>ROUND(F6/(1+B6)^C6,6)=E6</f>
-        <v>1</v>
-      </c>
-    </row>
+      <c r="B8" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="C8" s="16">
+        <v>35</v>
+      </c>
+      <c r="D8" s="16">
+        <v>50</v>
+      </c>
+      <c r="E8" s="19">
+        <f>(1-1/(1+B8)^C8)/(1-1/(1+B8)^D8)</f>
+        <v>0.919830894086592</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="10" customFormat="1" customHeight="1"/>
     <row r="11" customFormat="1" customHeight="1"/>
     <row r="12" customFormat="1" customHeight="1"/>
     <row r="13" customFormat="1" customHeight="1"/>
@@ -1245,7 +1408,6 @@
     <row r="16" customFormat="1" customHeight="1"/>
     <row r="17" customFormat="1" customHeight="1"/>
     <row r="18" customFormat="1" customHeight="1"/>
-    <row r="19" customFormat="1" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
@@ -1257,226 +1419,246 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="4" width="17.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="2.375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10" style="9" customWidth="1"/>
+    <col min="2" max="3" width="17.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" customWidth="1"/>
+    <col min="5" max="6" width="12.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="9"/>
+    <col min="8" max="8" width="9" style="9"/>
+    <col min="9" max="9" width="8.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="9" customWidth="1"/>
+    <col min="11" max="12" width="9" style="9"/>
+    <col min="13" max="13" width="2.375" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="M1" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:10">
-      <c r="A2" s="4">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="10">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="10">
         <v>182000</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="10">
         <v>51000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <f>D2/C2</f>
         <v>0.28021978021978</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="11">
         <f>(E2-J3)/(J2-J3)*(I2-I3)+I3</f>
         <v>0.224899725274725</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="I2" s="10">
+      <c r="I2" s="14">
         <v>0.23</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="10">
         <v>0.2843</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:10">
-      <c r="A3" s="4">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="10">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="10">
         <v>143000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="10">
         <v>42200</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="10">
         <f>D3/C3</f>
         <v>0.295104895104895</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="11">
         <f>(E3-J8)/(J7-J8)*1%+I8</f>
         <v>0.192439047439047</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="I3" s="10">
+      <c r="I3" s="14">
         <v>0.22</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="10">
         <v>0.2763</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="10">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="10">
         <v>154000</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="10">
         <v>42500</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="10">
         <f>D4/C4</f>
         <v>0.275974025974026</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="11">
         <f>(E4-J4)/(J3-J4)*1%+I4</f>
         <v>0.219587374650666</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="I4" s="10">
+      <c r="G4" s="12"/>
+      <c r="I4" s="14">
         <v>0.21</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="10">
         <v>0.2684</v>
       </c>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" ht="25" customHeight="1" spans="1:6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="13">
         <f>51000-51000*(1.2%)-216000*0.017</f>
         <v>46716</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="11">
         <f>ROUND(AVERAGE(F2:F4),4)</f>
         <v>0.2123</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="2" t="s">
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="9:10">
+      <c r="I6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="I7" s="10">
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="9:10">
+      <c r="I7" s="14">
         <v>0.2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="10">
         <v>0.3007</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="10">
+    <row r="8" ht="25" customHeight="1" spans="9:10">
+      <c r="I8" s="14">
         <v>0.19</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="10">
         <v>0.2933</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+    <row r="9" ht="25" customHeight="1" spans="3:3">
+      <c r="C9" s="9">
         <f>(199640+176747+189480)/3</f>
         <v>188622.333333333</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <f>C5*(1-1/(1+F5)^7)/F5</f>
         <v>162867.0019814</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="9">
         <f>E14+13880</f>
         <v>176747.0019814</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="9">
+        <v>15</v>
+      </c>
+      <c r="E18" s="9">
+        <v>18</v>
+      </c>
+      <c r="F18" s="9">
+        <v>23</v>
+      </c>
+      <c r="G18" s="9">
+        <v>294.38</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="9">
+        <v>1.08</v>
+      </c>
+      <c r="E19" s="9">
+        <f>D19*1.08</f>
+        <v>1.1664</v>
+      </c>
+      <c r="F19" s="9">
+        <f>E19*1.08</f>
+        <v>1.259712</v>
+      </c>
+      <c r="G19" s="9">
+        <f>F19</f>
+        <v>1.259712</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="9">
+        <f>D18/D19</f>
+        <v>13.8888888888889</v>
+      </c>
+      <c r="E20" s="9">
+        <f>E18/E19</f>
+        <v>15.4320987654321</v>
+      </c>
+      <c r="F20" s="9">
+        <f>F18/F19</f>
+        <v>18.2581415434639</v>
+      </c>
+      <c r="G20" s="9">
+        <f>G18/G19</f>
+        <v>233.688335111518</v>
       </c>
     </row>
   </sheetData>
@@ -1489,14 +1671,464 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <v>150</v>
+      </c>
+      <c r="C2" s="2">
+        <v>220</v>
+      </c>
+      <c r="D2" s="2">
+        <v>300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>350</v>
+      </c>
+      <c r="F2" s="2">
+        <v>400</v>
+      </c>
+      <c r="G2" s="2">
+        <v>400</v>
+      </c>
+      <c r="H2" s="3">
+        <v>9.8</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>920</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1900</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1900</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" cm="1">
+        <f t="array" ref="B4">SUMPRODUCT(B2:B3,$H$2:$H$3,$I$2:$I$3)</f>
+        <v>29052</v>
+      </c>
+      <c r="C4" s="3" cm="1">
+        <f t="array" ref="C4">SUMPRODUCT(C2:C3,$H$2:$H$3,$I$2:$I$3)</f>
+        <v>40280</v>
+      </c>
+      <c r="D4" s="3" cm="1">
+        <f t="array" ref="D4">SUMPRODUCT(D2:D3,$H$2:$H$3,$I$2:$I$3)</f>
+        <v>52800</v>
+      </c>
+      <c r="E4" s="3" cm="1">
+        <f t="array" ref="E4">SUMPRODUCT(E2:E3,$H$2:$H$3,$I$2:$I$3)</f>
+        <v>62380</v>
+      </c>
+      <c r="F4" s="3" cm="1">
+        <f t="array" ref="F4">SUMPRODUCT(F2:F3,$H$2:$H$3,$I$2:$I$3)</f>
+        <v>68840</v>
+      </c>
+      <c r="G4" s="3" cm="1">
+        <f t="array" ref="G4">SUMPRODUCT(G2:G3,$H$2:$H$3,$I$2:$I$3)</f>
+        <v>68840</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="5">
+        <v>500</v>
+      </c>
+      <c r="G6" s="5">
+        <v>500</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5">
+        <v>600</v>
+      </c>
+      <c r="C7" s="5">
+        <v>600</v>
+      </c>
+      <c r="D7" s="5">
+        <v>600</v>
+      </c>
+      <c r="E7" s="5">
+        <v>600</v>
+      </c>
+      <c r="F7" s="5">
+        <v>600</v>
+      </c>
+      <c r="G7" s="5">
+        <v>600</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5">
+        <v>200</v>
+      </c>
+      <c r="C8" s="5">
+        <v>200</v>
+      </c>
+      <c r="D8" s="5">
+        <v>200</v>
+      </c>
+      <c r="E8" s="5">
+        <v>200</v>
+      </c>
+      <c r="F8" s="5">
+        <v>200</v>
+      </c>
+      <c r="G8" s="5">
+        <v>200</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5">
+        <v>400</v>
+      </c>
+      <c r="C9" s="5">
+        <v>400</v>
+      </c>
+      <c r="D9" s="5">
+        <v>400</v>
+      </c>
+      <c r="E9" s="5">
+        <v>400</v>
+      </c>
+      <c r="F9" s="5">
+        <v>400</v>
+      </c>
+      <c r="G9" s="5">
+        <v>400</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5">
+        <f>SUM(B5:B9)*$I$2</f>
+        <v>39000</v>
+      </c>
+      <c r="C10" s="5">
+        <f>SUM(C5:C9)*$I$2</f>
+        <v>39000</v>
+      </c>
+      <c r="D10" s="5">
+        <f>SUM(D5:D9)*$I$2</f>
+        <v>39000</v>
+      </c>
+      <c r="E10" s="5">
+        <f>SUM(E5:E9)*$I$2</f>
+        <v>39000</v>
+      </c>
+      <c r="F10" s="5">
+        <f>SUM(F5:F9)*$I$2</f>
+        <v>27000</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(G5:G9)*$I$2</f>
+        <v>27000</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B4-B10</f>
+        <v>-9948</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C4-C10</f>
+        <v>1280</v>
+      </c>
+      <c r="D11" s="6">
+        <f>D4-D10</f>
+        <v>13800</v>
+      </c>
+      <c r="E11" s="6">
+        <f>E4-E10</f>
+        <v>23380</v>
+      </c>
+      <c r="F11" s="5">
+        <f>F4-F10</f>
+        <v>41840</v>
+      </c>
+      <c r="G11" s="5">
+        <f>G4-G10</f>
+        <v>41840</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="7">
+        <f>ROUND(1/1.1,4)</f>
+        <v>0.9091</v>
+      </c>
+      <c r="C12" s="7">
+        <f>ROUND(1/1.21,4)</f>
+        <v>0.8264</v>
+      </c>
+      <c r="D12" s="7">
+        <f>ROUND(1/1.21/1.1,4)</f>
+        <v>0.7513</v>
+      </c>
+      <c r="E12" s="7">
+        <f>ROUND(1/1.21/1.21,4)</f>
+        <v>0.683</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B11*B12</f>
+        <v>-9043.7268</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C11*C12</f>
+        <v>1057.792</v>
+      </c>
+      <c r="D13" s="5">
+        <f>D11*D12</f>
+        <v>10367.94</v>
+      </c>
+      <c r="E13" s="5">
+        <f>E11*E12</f>
+        <v>15968.54</v>
+      </c>
+      <c r="F13" s="5">
+        <f>F11/0.1*E12</f>
+        <v>285767.2</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8">
+        <f>SUM(B13:F13)</f>
+        <v>304117.7452</v>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:6">
+      <c r="B16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="1">
+        <f>350*10*400*0.7*0.2</f>
+        <v>196000</v>
+      </c>
+      <c r="F16" s="1">
+        <f>E16/((1+5%)^8-1)</f>
+        <v>410509.50942051</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:6">
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1">
+        <f>300*10</f>
+        <v>3000</v>
+      </c>
+      <c r="F17" s="1">
+        <f>E17/0.05</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:6">
+      <c r="B18" s="1">
+        <f>2.1/2</f>
+        <v>1.05</v>
+      </c>
+      <c r="C18" s="1">
+        <f>2.1/2</f>
+        <v>1.05</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F16-F17</f>
+        <v>350509.50942051</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:6">
+      <c r="B19" s="1">
+        <f>B16*B17*B18</f>
+        <v>105000</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C16*C17*C18</f>
+        <v>42000</v>
+      </c>
+      <c r="F19" s="1">
+        <f>F18/0.05</f>
+        <v>7010190.18841019</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:3">
+      <c r="B20" s="1">
+        <f>1.1*1.1</f>
+        <v>1.21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:3">
+      <c r="C21" s="1" cm="1">
+        <f t="array" ref="C21">SUMPRODUCT(B19:C19,B20:C20)</f>
+        <v>173250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H13:I13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
